--- a/IFEMA.xlsx
+++ b/IFEMA.xlsx
@@ -58,40 +58,40 @@
     <t>Número de días feriales</t>
   </si>
   <si>
-    <t>Enero</t>
+    <t>January</t>
   </si>
   <si>
-    <t>Febrero</t>
+    <t>February</t>
   </si>
   <si>
-    <t>Marzo</t>
+    <t>March</t>
   </si>
   <si>
-    <t>Abril</t>
+    <t>April</t>
   </si>
   <si>
-    <t>Mayo</t>
+    <t>May</t>
   </si>
   <si>
-    <t>junio</t>
+    <t>June</t>
   </si>
   <si>
-    <t>julio</t>
+    <t>July</t>
   </si>
   <si>
-    <t>agosto</t>
+    <t>August</t>
   </si>
   <si>
-    <t>septiembre</t>
+    <t>September</t>
   </si>
   <si>
-    <t>octubre</t>
+    <t>October</t>
   </si>
   <si>
-    <t>noviembre</t>
+    <t>November</t>
   </si>
   <si>
-    <t>diciembre</t>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -225,12 +225,18 @@
     <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
@@ -559,7 +565,7 @@
       <c r="A3" s="9">
         <v>1999.0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="8">
@@ -606,7 +612,7 @@
       <c r="A4" s="9">
         <v>1999.0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="8">
@@ -653,7 +659,7 @@
       <c r="A5" s="9">
         <v>1999.0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="8">
@@ -700,7 +706,7 @@
       <c r="A6" s="9">
         <v>1999.0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="8">
@@ -747,7 +753,7 @@
       <c r="A7" s="9">
         <v>1999.0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="8">
@@ -794,7 +800,7 @@
       <c r="A8" s="9">
         <v>1999.0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="8">
@@ -841,7 +847,7 @@
       <c r="A9" s="9">
         <v>1999.0</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="8">
@@ -888,7 +894,7 @@
       <c r="A10" s="9">
         <v>1999.0</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="8">
@@ -935,7 +941,7 @@
       <c r="A11" s="9">
         <v>1999.0</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="8">
@@ -982,7 +988,7 @@
       <c r="A12" s="9">
         <v>1999.0</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="8">
@@ -1029,7 +1035,7 @@
       <c r="A13" s="9">
         <v>1999.0</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="8">
@@ -1073,10 +1079,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10">
+      <c r="A14" s="12">
         <v>2000.0</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="8">
@@ -1120,10 +1126,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10">
+      <c r="A15" s="12">
         <v>2000.0</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="8">
@@ -1167,10 +1173,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10">
+      <c r="A16" s="12">
         <v>2000.0</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="8">
@@ -1214,10 +1220,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10">
+      <c r="A17" s="12">
         <v>2000.0</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="8">
@@ -1261,10 +1267,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10">
+      <c r="A18" s="12">
         <v>2000.0</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="8">
@@ -1308,10 +1314,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10">
+      <c r="A19" s="12">
         <v>2000.0</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="8">
@@ -1355,10 +1361,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10">
+      <c r="A20" s="12">
         <v>2000.0</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="8">
@@ -1402,10 +1408,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="10">
+      <c r="A21" s="12">
         <v>2000.0</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="8">
@@ -1449,10 +1455,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10">
+      <c r="A22" s="12">
         <v>2000.0</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="8">
@@ -1496,10 +1502,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="10">
+      <c r="A23" s="12">
         <v>2000.0</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="8">
@@ -1543,10 +1549,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="10">
+      <c r="A24" s="12">
         <v>2000.0</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="8">
@@ -1590,10 +1596,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10">
+      <c r="A25" s="12">
         <v>2000.0</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="8">
@@ -1640,7 +1646,7 @@
       <c r="A26" s="9">
         <v>2001.0</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="8">
@@ -1687,7 +1693,7 @@
       <c r="A27" s="9">
         <v>2001.0</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="8">
@@ -1734,7 +1740,7 @@
       <c r="A28" s="9">
         <v>2001.0</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="8">
@@ -1781,7 +1787,7 @@
       <c r="A29" s="9">
         <v>2001.0</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="8">
@@ -1828,7 +1834,7 @@
       <c r="A30" s="9">
         <v>2001.0</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="8">
@@ -1875,7 +1881,7 @@
       <c r="A31" s="9">
         <v>2001.0</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="8">
@@ -1922,7 +1928,7 @@
       <c r="A32" s="9">
         <v>2001.0</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="8">
@@ -1969,7 +1975,7 @@
       <c r="A33" s="9">
         <v>2001.0</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="8">
@@ -2016,7 +2022,7 @@
       <c r="A34" s="9">
         <v>2001.0</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="8">
@@ -2063,7 +2069,7 @@
       <c r="A35" s="9">
         <v>2001.0</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="8">
@@ -2110,7 +2116,7 @@
       <c r="A36" s="9">
         <v>2001.0</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="8">
@@ -2157,7 +2163,7 @@
       <c r="A37" s="9">
         <v>2001.0</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="8">
@@ -2201,10 +2207,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="10">
+      <c r="A38" s="12">
         <v>2002.0</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="8">
@@ -2248,10 +2254,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="10">
+      <c r="A39" s="12">
         <v>2002.0</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="8">
@@ -2295,10 +2301,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="10">
+      <c r="A40" s="12">
         <v>2002.0</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="8">
@@ -2342,10 +2348,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="10">
+      <c r="A41" s="12">
         <v>2002.0</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="8">
@@ -2389,10 +2395,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="10">
+      <c r="A42" s="12">
         <v>2002.0</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="8">
@@ -2436,10 +2442,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="10">
+      <c r="A43" s="12">
         <v>2002.0</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="8">
@@ -2483,10 +2489,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="10">
+      <c r="A44" s="12">
         <v>2002.0</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C44" s="8">
@@ -2530,10 +2536,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="10">
+      <c r="A45" s="12">
         <v>2002.0</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="8">
@@ -2577,10 +2583,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="10">
+      <c r="A46" s="12">
         <v>2002.0</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="8">
@@ -2624,10 +2630,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="10">
+      <c r="A47" s="12">
         <v>2002.0</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="8">
@@ -2671,10 +2677,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="10">
+      <c r="A48" s="12">
         <v>2002.0</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="8">
@@ -2718,10 +2724,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="10">
+      <c r="A49" s="12">
         <v>2002.0</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C49" s="8">
@@ -2768,7 +2774,7 @@
       <c r="A50" s="9">
         <v>2003.0</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="8">
@@ -2815,7 +2821,7 @@
       <c r="A51" s="9">
         <v>2003.0</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="8">
@@ -2862,7 +2868,7 @@
       <c r="A52" s="9">
         <v>2003.0</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="8">
@@ -2909,7 +2915,7 @@
       <c r="A53" s="9">
         <v>2003.0</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="8">
@@ -2956,7 +2962,7 @@
       <c r="A54" s="9">
         <v>2003.0</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="8">
@@ -3003,7 +3009,7 @@
       <c r="A55" s="9">
         <v>2003.0</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="8">
@@ -3050,7 +3056,7 @@
       <c r="A56" s="9">
         <v>2003.0</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C56" s="8">
@@ -3097,7 +3103,7 @@
       <c r="A57" s="9">
         <v>2003.0</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="8">
@@ -3144,7 +3150,7 @@
       <c r="A58" s="9">
         <v>2003.0</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="8">
@@ -3191,7 +3197,7 @@
       <c r="A59" s="9">
         <v>2003.0</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="8">
@@ -3238,7 +3244,7 @@
       <c r="A60" s="9">
         <v>2003.0</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C60" s="8">
@@ -3285,7 +3291,7 @@
       <c r="A61" s="9">
         <v>2003.0</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C61" s="8">
@@ -3329,10 +3335,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="10">
+      <c r="A62" s="12">
         <v>2004.0</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="8">
@@ -3376,10 +3382,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="10">
+      <c r="A63" s="12">
         <v>2004.0</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="8">
@@ -3423,10 +3429,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="10">
+      <c r="A64" s="12">
         <v>2004.0</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C64" s="8">
@@ -3470,10 +3476,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="10">
+      <c r="A65" s="12">
         <v>2004.0</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C65" s="8">
@@ -3517,10 +3523,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="10">
+      <c r="A66" s="12">
         <v>2004.0</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C66" s="8">
@@ -3564,10 +3570,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="10">
+      <c r="A67" s="12">
         <v>2004.0</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C67" s="8">
@@ -3611,10 +3617,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="10">
+      <c r="A68" s="12">
         <v>2004.0</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="8">
@@ -3658,10 +3664,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="10">
+      <c r="A69" s="12">
         <v>2004.0</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="8">
@@ -3705,10 +3711,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="10">
+      <c r="A70" s="12">
         <v>2004.0</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C70" s="8">
@@ -3752,10 +3758,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="10">
+      <c r="A71" s="12">
         <v>2004.0</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="8">
@@ -3799,10 +3805,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="10">
+      <c r="A72" s="12">
         <v>2004.0</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C72" s="8">
@@ -3846,10 +3852,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="10">
+      <c r="A73" s="12">
         <v>2004.0</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C73" s="8">
@@ -3896,7 +3902,7 @@
       <c r="A74" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C74" s="8">
@@ -3943,7 +3949,7 @@
       <c r="A75" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C75" s="8">
@@ -3990,7 +3996,7 @@
       <c r="A76" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="8">
@@ -4037,7 +4043,7 @@
       <c r="A77" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C77" s="8">
@@ -4084,7 +4090,7 @@
       <c r="A78" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C78" s="8">
@@ -4131,7 +4137,7 @@
       <c r="A79" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C79" s="8">
@@ -4178,7 +4184,7 @@
       <c r="A80" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C80" s="8">
@@ -4225,7 +4231,7 @@
       <c r="A81" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="8">
@@ -4272,7 +4278,7 @@
       <c r="A82" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C82" s="8">
@@ -4319,7 +4325,7 @@
       <c r="A83" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="8">
@@ -4366,7 +4372,7 @@
       <c r="A84" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C84" s="8">
@@ -4413,7 +4419,7 @@
       <c r="A85" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C85" s="8">
@@ -4457,10 +4463,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="10">
+      <c r="A86" s="12">
         <v>2006.0</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C86" s="8">
@@ -4504,10 +4510,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="10">
+      <c r="A87" s="12">
         <v>2006.0</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C87" s="8">
@@ -4551,10 +4557,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="10">
+      <c r="A88" s="12">
         <v>2006.0</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C88" s="8">
@@ -4598,10 +4604,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="10">
+      <c r="A89" s="12">
         <v>2006.0</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C89" s="8">
@@ -4645,10 +4651,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="10">
+      <c r="A90" s="12">
         <v>2006.0</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C90" s="8">
@@ -4692,10 +4698,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="10">
+      <c r="A91" s="12">
         <v>2006.0</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C91" s="8">
@@ -4739,10 +4745,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="10">
+      <c r="A92" s="12">
         <v>2006.0</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C92" s="8">
@@ -4786,10 +4792,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="10">
+      <c r="A93" s="12">
         <v>2006.0</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="8">
@@ -4833,10 +4839,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="10">
+      <c r="A94" s="12">
         <v>2006.0</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C94" s="8">
@@ -4880,10 +4886,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="10">
+      <c r="A95" s="12">
         <v>2006.0</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C95" s="8">
@@ -4927,10 +4933,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="10">
+      <c r="A96" s="12">
         <v>2006.0</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C96" s="8">
@@ -4974,10 +4980,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="10">
+      <c r="A97" s="12">
         <v>2006.0</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C97" s="8">
@@ -5024,7 +5030,7 @@
       <c r="A98" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C98" s="8">
@@ -5071,7 +5077,7 @@
       <c r="A99" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C99" s="8">
@@ -5118,7 +5124,7 @@
       <c r="A100" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C100" s="8">
@@ -5165,7 +5171,7 @@
       <c r="A101" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C101" s="8">
@@ -5212,7 +5218,7 @@
       <c r="A102" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C102" s="8">
@@ -5259,7 +5265,7 @@
       <c r="A103" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C103" s="8">
@@ -5306,7 +5312,7 @@
       <c r="A104" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C104" s="8">
@@ -5353,7 +5359,7 @@
       <c r="A105" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C105" s="8">
@@ -5400,7 +5406,7 @@
       <c r="A106" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C106" s="8">
@@ -5447,7 +5453,7 @@
       <c r="A107" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C107" s="8">
@@ -5494,7 +5500,7 @@
       <c r="A108" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C108" s="8">
@@ -5541,7 +5547,7 @@
       <c r="A109" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C109" s="8">
@@ -5585,10 +5591,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="10">
+      <c r="A110" s="12">
         <v>2008.0</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C110" s="8">
@@ -5632,10 +5638,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="10">
+      <c r="A111" s="12">
         <v>2008.0</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C111" s="8">
@@ -5679,10 +5685,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="10">
+      <c r="A112" s="12">
         <v>2008.0</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C112" s="8">
@@ -5726,10 +5732,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="10">
+      <c r="A113" s="12">
         <v>2008.0</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C113" s="8">
@@ -5773,10 +5779,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="10">
+      <c r="A114" s="12">
         <v>2008.0</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C114" s="8">
@@ -5820,10 +5826,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="10">
+      <c r="A115" s="12">
         <v>2008.0</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C115" s="8">
@@ -5867,10 +5873,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="10">
+      <c r="A116" s="12">
         <v>2008.0</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C116" s="8">
@@ -5914,10 +5920,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="10">
+      <c r="A117" s="12">
         <v>2008.0</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C117" s="8">
@@ -5961,10 +5967,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="10">
+      <c r="A118" s="12">
         <v>2008.0</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C118" s="8">
@@ -6008,10 +6014,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="10">
+      <c r="A119" s="12">
         <v>2008.0</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C119" s="8">
@@ -6055,10 +6061,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="10">
+      <c r="A120" s="12">
         <v>2008.0</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C120" s="8">
@@ -6102,10 +6108,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="10">
+      <c r="A121" s="12">
         <v>2008.0</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C121" s="8">
@@ -6152,7 +6158,7 @@
       <c r="A122" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C122" s="8">
@@ -6199,7 +6205,7 @@
       <c r="A123" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C123" s="8">
@@ -6246,7 +6252,7 @@
       <c r="A124" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C124" s="8">
@@ -6293,7 +6299,7 @@
       <c r="A125" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C125" s="8">
@@ -6340,7 +6346,7 @@
       <c r="A126" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C126" s="8">
@@ -6387,7 +6393,7 @@
       <c r="A127" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C127" s="8">
@@ -6434,7 +6440,7 @@
       <c r="A128" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C128" s="8">
@@ -6481,7 +6487,7 @@
       <c r="A129" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C129" s="8">
@@ -6528,7 +6534,7 @@
       <c r="A130" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C130" s="8">
@@ -6575,7 +6581,7 @@
       <c r="A131" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C131" s="8">
@@ -6622,7 +6628,7 @@
       <c r="A132" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C132" s="8">
@@ -6669,7 +6675,7 @@
       <c r="A133" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C133" s="8">
@@ -6713,10 +6719,10 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="10">
+      <c r="A134" s="12">
         <v>2010.0</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C134" s="8">
@@ -6760,10 +6766,10 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="10">
+      <c r="A135" s="12">
         <v>2010.0</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C135" s="8">
@@ -6807,10 +6813,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="10">
+      <c r="A136" s="12">
         <v>2010.0</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C136" s="8">
@@ -6854,10 +6860,10 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="10">
+      <c r="A137" s="12">
         <v>2010.0</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C137" s="8">
@@ -6901,10 +6907,10 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="10">
+      <c r="A138" s="12">
         <v>2010.0</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C138" s="8">
@@ -6948,10 +6954,10 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="10">
+      <c r="A139" s="12">
         <v>2010.0</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C139" s="8">
@@ -6995,10 +7001,10 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="10">
+      <c r="A140" s="12">
         <v>2010.0</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C140" s="8">
@@ -7042,10 +7048,10 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="10">
+      <c r="A141" s="12">
         <v>2010.0</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C141" s="8">
@@ -7089,10 +7095,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="10">
+      <c r="A142" s="12">
         <v>2010.0</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C142" s="8">
@@ -7136,10 +7142,10 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="10">
+      <c r="A143" s="12">
         <v>2010.0</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C143" s="8">
@@ -7183,10 +7189,10 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="10">
+      <c r="A144" s="12">
         <v>2010.0</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C144" s="8">
@@ -7230,10 +7236,10 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="10">
+      <c r="A145" s="12">
         <v>2010.0</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C145" s="8">
@@ -7280,7 +7286,7 @@
       <c r="A146" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C146" s="8">
@@ -7327,7 +7333,7 @@
       <c r="A147" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C147" s="8">
@@ -7374,7 +7380,7 @@
       <c r="A148" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C148" s="8">
@@ -7421,7 +7427,7 @@
       <c r="A149" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C149" s="8">
@@ -7468,7 +7474,7 @@
       <c r="A150" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C150" s="8">
@@ -7515,7 +7521,7 @@
       <c r="A151" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C151" s="8">
@@ -7562,7 +7568,7 @@
       <c r="A152" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C152" s="8">
@@ -7609,7 +7615,7 @@
       <c r="A153" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C153" s="8">
@@ -7656,7 +7662,7 @@
       <c r="A154" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C154" s="8">
@@ -7703,7 +7709,7 @@
       <c r="A155" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C155" s="8">
@@ -7750,7 +7756,7 @@
       <c r="A156" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C156" s="8">
@@ -7797,7 +7803,7 @@
       <c r="A157" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C157" s="8">
@@ -7841,10 +7847,10 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="10">
+      <c r="A158" s="12">
         <v>2012.0</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C158" s="8">
@@ -7888,10 +7894,10 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="10">
+      <c r="A159" s="12">
         <v>2012.0</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C159" s="8">
@@ -7935,10 +7941,10 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="10">
+      <c r="A160" s="12">
         <v>2012.0</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C160" s="8">
@@ -7982,10 +7988,10 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="10">
+      <c r="A161" s="12">
         <v>2012.0</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C161" s="8">
@@ -8029,10 +8035,10 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="10">
+      <c r="A162" s="12">
         <v>2012.0</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C162" s="8">
@@ -8076,10 +8082,10 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="10">
+      <c r="A163" s="12">
         <v>2012.0</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C163" s="8">
@@ -8123,10 +8129,10 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="10">
+      <c r="A164" s="12">
         <v>2012.0</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C164" s="8">
@@ -8170,10 +8176,10 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="10">
+      <c r="A165" s="12">
         <v>2012.0</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C165" s="8">
@@ -8217,10 +8223,10 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="10">
+      <c r="A166" s="12">
         <v>2012.0</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C166" s="8">
@@ -8264,10 +8270,10 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="10">
+      <c r="A167" s="12">
         <v>2012.0</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C167" s="8">
@@ -8311,10 +8317,10 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="10">
+      <c r="A168" s="12">
         <v>2012.0</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C168" s="8">
@@ -8358,10 +8364,10 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="10">
+      <c r="A169" s="12">
         <v>2012.0</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C169" s="8">
@@ -8408,7 +8414,7 @@
       <c r="A170" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C170" s="8">
@@ -8455,7 +8461,7 @@
       <c r="A171" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C171" s="8">
@@ -8502,7 +8508,7 @@
       <c r="A172" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C172" s="8">
@@ -8549,7 +8555,7 @@
       <c r="A173" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C173" s="8">
@@ -8596,7 +8602,7 @@
       <c r="A174" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C174" s="8">
@@ -8643,7 +8649,7 @@
       <c r="A175" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C175" s="8">
@@ -8690,7 +8696,7 @@
       <c r="A176" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C176" s="8">
@@ -8737,7 +8743,7 @@
       <c r="A177" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C177" s="8">
@@ -8784,7 +8790,7 @@
       <c r="A178" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C178" s="8">
@@ -8831,7 +8837,7 @@
       <c r="A179" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C179" s="8">
@@ -8878,7 +8884,7 @@
       <c r="A180" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C180" s="8">
@@ -8925,7 +8931,7 @@
       <c r="A181" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C181" s="8">
@@ -8969,10 +8975,10 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="10">
+      <c r="A182" s="12">
         <v>2014.0</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C182" s="8">
@@ -9016,10 +9022,10 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="10">
+      <c r="A183" s="12">
         <v>2014.0</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C183" s="8">
@@ -9063,10 +9069,10 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="10">
+      <c r="A184" s="12">
         <v>2014.0</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C184" s="8">
@@ -9110,10 +9116,10 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="10">
+      <c r="A185" s="12">
         <v>2014.0</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C185" s="8">
@@ -9157,10 +9163,10 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="10">
+      <c r="A186" s="12">
         <v>2014.0</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C186" s="8">
@@ -9204,10 +9210,10 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="10">
+      <c r="A187" s="12">
         <v>2014.0</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C187" s="8">
@@ -9251,10 +9257,10 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="10">
+      <c r="A188" s="12">
         <v>2014.0</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C188" s="8">
@@ -9298,10 +9304,10 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="10">
+      <c r="A189" s="12">
         <v>2014.0</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C189" s="8">
@@ -9345,10 +9351,10 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="10">
+      <c r="A190" s="12">
         <v>2014.0</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C190" s="8">
@@ -9392,10 +9398,10 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="10">
+      <c r="A191" s="12">
         <v>2014.0</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C191" s="8">
@@ -9439,10 +9445,10 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="10">
+      <c r="A192" s="12">
         <v>2014.0</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C192" s="8">
@@ -9486,10 +9492,10 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="10">
+      <c r="A193" s="12">
         <v>2014.0</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C193" s="8">
@@ -9536,7 +9542,7 @@
       <c r="A194" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B194" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C194" s="8">
@@ -9583,7 +9589,7 @@
       <c r="A195" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C195" s="8">
@@ -9630,7 +9636,7 @@
       <c r="A196" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C196" s="8">
@@ -9677,7 +9683,7 @@
       <c r="A197" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C197" s="8">
@@ -9724,7 +9730,7 @@
       <c r="A198" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C198" s="8">
@@ -9771,7 +9777,7 @@
       <c r="A199" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C199" s="8">
@@ -9818,7 +9824,7 @@
       <c r="A200" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B200" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C200" s="8">
@@ -9865,7 +9871,7 @@
       <c r="A201" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C201" s="8">
@@ -9912,7 +9918,7 @@
       <c r="A202" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C202" s="8">
@@ -9959,7 +9965,7 @@
       <c r="A203" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C203" s="8">
@@ -10006,7 +10012,7 @@
       <c r="A204" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C204" s="8">
@@ -10053,7 +10059,7 @@
       <c r="A205" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C205" s="8">
@@ -10097,10 +10103,10 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="10">
+      <c r="A206" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C206" s="8">
@@ -10144,10 +10150,10 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="10">
+      <c r="A207" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C207" s="8">
@@ -10191,10 +10197,10 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="10">
+      <c r="A208" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C208" s="8">
@@ -10238,10 +10244,10 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="10">
+      <c r="A209" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B209" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C209" s="8">
@@ -10285,10 +10291,10 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="10">
+      <c r="A210" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C210" s="8">
@@ -10332,10 +10338,10 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="10">
+      <c r="A211" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C211" s="8">
@@ -10379,10 +10385,10 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="10">
+      <c r="A212" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B212" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C212" s="8">
@@ -10426,10 +10432,10 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="10">
+      <c r="A213" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="B213" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C213" s="8">
@@ -10473,10 +10479,10 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="10">
+      <c r="A214" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C214" s="8">
@@ -10520,10 +10526,10 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="10">
+      <c r="A215" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B215" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C215" s="8">
@@ -10567,10 +10573,10 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="10">
+      <c r="A216" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B216" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C216" s="8">
@@ -10614,10 +10620,10 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="10">
+      <c r="A217" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C217" s="8">
@@ -10664,7 +10670,7 @@
       <c r="A218" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B218" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C218" s="8">
@@ -10711,7 +10717,7 @@
       <c r="A219" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C219" s="8">
@@ -10758,7 +10764,7 @@
       <c r="A220" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B220" s="7" t="s">
+      <c r="B220" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C220" s="8">
@@ -10805,7 +10811,7 @@
       <c r="A221" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C221" s="8">
@@ -10852,7 +10858,7 @@
       <c r="A222" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C222" s="8">
@@ -10899,7 +10905,7 @@
       <c r="A223" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C223" s="8">
@@ -10946,7 +10952,7 @@
       <c r="A224" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B224" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C224" s="8">
@@ -10993,7 +10999,7 @@
       <c r="A225" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C225" s="8">
@@ -11040,7 +11046,7 @@
       <c r="A226" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B226" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C226" s="8">
@@ -11087,7 +11093,7 @@
       <c r="A227" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C227" s="8">
@@ -11134,7 +11140,7 @@
       <c r="A228" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B228" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C228" s="8">
@@ -11181,7 +11187,7 @@
       <c r="A229" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C229" s="8">
@@ -11225,10 +11231,10 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="10">
+      <c r="A230" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B230" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C230" s="8">
@@ -11272,10 +11278,10 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="10">
+      <c r="A231" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C231" s="8">
@@ -11319,10 +11325,10 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="10">
+      <c r="A232" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B232" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C232" s="8">
@@ -11366,10 +11372,10 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="10">
+      <c r="A233" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C233" s="8">
@@ -11413,10 +11419,10 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="10">
+      <c r="A234" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B234" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C234" s="8">
@@ -11460,10 +11466,10 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="10">
+      <c r="A235" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C235" s="8">
@@ -11507,10 +11513,10 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="10">
+      <c r="A236" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="B236" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C236" s="8">
@@ -11554,10 +11560,10 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="10">
+      <c r="A237" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="B237" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C237" s="8">
@@ -11601,10 +11607,10 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="10">
+      <c r="A238" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B238" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C238" s="8">
@@ -11648,10 +11654,10 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="10">
+      <c r="A239" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B239" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C239" s="8">
@@ -11695,10 +11701,10 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="10">
+      <c r="A240" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B240" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C240" s="8">
@@ -11742,10 +11748,10 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="10">
+      <c r="A241" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B241" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C241" s="8">
@@ -11792,7 +11798,7 @@
       <c r="A242" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="B242" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C242" s="8">
@@ -11839,7 +11845,7 @@
       <c r="A243" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C243" s="8">
@@ -11886,7 +11892,7 @@
       <c r="A244" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B244" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C244" s="8">
@@ -11933,7 +11939,7 @@
       <c r="A245" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B245" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C245" s="8">
@@ -11980,7 +11986,7 @@
       <c r="A246" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B246" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C246" s="8">
@@ -12027,7 +12033,7 @@
       <c r="A247" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B247" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C247" s="8">
@@ -12074,7 +12080,7 @@
       <c r="A248" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="B248" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C248" s="8">
@@ -12121,7 +12127,7 @@
       <c r="A249" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B249" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C249" s="8">
@@ -12168,7 +12174,7 @@
       <c r="A250" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B250" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C250" s="8">
@@ -12215,7 +12221,7 @@
       <c r="A251" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B251" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C251" s="8">
@@ -12262,7 +12268,7 @@
       <c r="A252" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B252" s="7" t="s">
+      <c r="B252" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C252" s="8">
@@ -12309,7 +12315,7 @@
       <c r="A253" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B253" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C253" s="8">
@@ -12353,10 +12359,10 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="10">
+      <c r="A254" s="12">
         <v>2020.0</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="B254" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C254" s="8">
@@ -12400,10 +12406,10 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="10">
+      <c r="A255" s="12">
         <v>2020.0</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B255" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C255" s="8">
@@ -12447,10 +12453,10 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="10">
+      <c r="A256" s="12">
         <v>2020.0</v>
       </c>
-      <c r="B256" s="7" t="s">
+      <c r="B256" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C256" s="8">
@@ -12494,10 +12500,10 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="10">
+      <c r="A257" s="12">
         <v>2020.0</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B257" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C257" s="8">
@@ -12541,10 +12547,10 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="10">
+      <c r="A258" s="12">
         <v>2020.0</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B258" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C258" s="8">
@@ -12588,10 +12594,10 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="10">
+      <c r="A259" s="12">
         <v>2020.0</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C259" s="8">
@@ -12635,10 +12641,10 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="10">
+      <c r="A260" s="12">
         <v>2020.0</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="B260" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C260" s="8">
@@ -12682,10 +12688,10 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="10">
+      <c r="A261" s="12">
         <v>2020.0</v>
       </c>
-      <c r="B261" s="7" t="s">
+      <c r="B261" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C261" s="8">
@@ -12729,10 +12735,10 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="10">
+      <c r="A262" s="12">
         <v>2020.0</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C262" s="8">
@@ -12776,10 +12782,10 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="10">
+      <c r="A263" s="12">
         <v>2020.0</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B263" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C263" s="8">
@@ -12823,10 +12829,10 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="10">
+      <c r="A264" s="12">
         <v>2020.0</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C264" s="8">
@@ -12870,10 +12876,10 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="10">
+      <c r="A265" s="12">
         <v>2020.0</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="B265" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C265" s="8">
@@ -12920,7 +12926,7 @@
       <c r="A266" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B266" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C266" s="8">
@@ -12967,7 +12973,7 @@
       <c r="A267" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C267" s="8">
@@ -13014,7 +13020,7 @@
       <c r="A268" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="B268" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C268" s="8">
@@ -13061,7 +13067,7 @@
       <c r="A269" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B269" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C269" s="8">
@@ -13108,7 +13114,7 @@
       <c r="A270" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B270" s="7" t="s">
+      <c r="B270" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C270" s="8">
@@ -13155,7 +13161,7 @@
       <c r="A271" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B271" s="7" t="s">
+      <c r="B271" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C271" s="8">
@@ -13202,7 +13208,7 @@
       <c r="A272" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="B272" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C272" s="8">
@@ -13249,7 +13255,7 @@
       <c r="A273" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B273" s="7" t="s">
+      <c r="B273" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C273" s="8">
@@ -13296,7 +13302,7 @@
       <c r="A274" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B274" s="7" t="s">
+      <c r="B274" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C274" s="8">
@@ -13343,7 +13349,7 @@
       <c r="A275" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C275" s="8">
@@ -13390,7 +13396,7 @@
       <c r="A276" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B276" s="7" t="s">
+      <c r="B276" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C276" s="8">
@@ -13437,7 +13443,7 @@
       <c r="A277" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B277" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C277" s="8">
